--- a/2024-12-03/2024-12-03.xlsx
+++ b/2024-12-03/2024-12-03.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,44 +446,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dynatrace</t>
+          <t>Changing Lives Productions LLC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enterprise Acquisition Account Executive - (Remote - CA)</t>
+          <t>Controller/Finance &amp; Accounting Lead</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Remote in Los Angeles, CA</t>
+          <t>Hybrid work in Burbank, CA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/rc/clk?jk=9fe1285058dd96cf&amp;bb=YN_34_Oe3Yn4QoSWYer6QaZIh2FgQ0U9qAH-_Dp-arYtGPA6N_BQ4hmwGe3yBBjogNj-KjijT563Ky4O6_gvLtE45rtpgdTaFndHSKjGCCzC2VyxlRr729RMFYw_sS5R&amp;xkcb=SoCK67M34HUO4JyJ5h0MbzkdCdPP&amp;fccid=f540b41324bdc0f3&amp;vjs=3</t>
+          <t>https://www.indeed.com/rc/clk?jk=eaa007159120d3d0&amp;bb=nkkXy_wgYHD0Ji23l6TO-wB-m2WS1hWvxsg70atZn_d9L1bC72F20D8q_m1h6phtyfwxaUIfVV1P4xjIS9Oo1IQYW6gVgVqsmTmaG9aB6_a0lIw_qugIjh7leDW2c7BG&amp;xkcb=SoDc67M34HVib2Sg0J0FbzkdCdPP&amp;fccid=f0b8ca68b0c0cfdf&amp;vjs=3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Honda</t>
+          <t>Direct Counsel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mgr Treasury Capital Market</t>
+          <t>ESG &amp; Sustainable Finance Associate Attorney</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hybrid work in Torrance, CA 90501</t>
+          <t>Hybrid work in Century City, CA 90067</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/rc/clk?jk=fa7a9fdce61a4d3f&amp;bb=YN_34_Oe3Yn4QoSWYer6QRdIbTjpFaJU083082SMtAeVct0bFLd6C0ZSf9kxYNJcVDrm9V7QdxN2616mq3E76J97RI9ejizsQcQh54Qqc47tE03IjX7EOw%3D%3D&amp;xkcb=SoDX67M34HUO4JyJ5h0CbzkdCdPP&amp;fccid=44d25bf384fdd5e1&amp;vjs=3</t>
+          <t>https://www.indeed.com/rc/clk?jk=d2f7ac6b6d63622b&amp;bb=nkkXy_wgYHD0Ji23l6TO-3j6TBm5SzwtOcXyQZvlz2IEOq4dkEVgNZpWEQ5Po-PLUSCY6rRPUjzae-z9KMiFld6tvq0NfAvBdE5lHPmPsxxeNZ-mDieTlkNDjoDWqB--&amp;xkcb=SoDB67M34HVib2Sg0J0cbzkdCdPP&amp;fccid=8642fbfb5e048ca2&amp;cmp=Direct-Counsel&amp;ti=Associate+Attorney&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Financial Crime Senior Manager</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Los Angeles, CA 90013 (Downtown area)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=e49ac1a7cdb161ac&amp;bb=nkkXy_wgYHD0Ji23l6TO-9oJ8P0uAEM5VFcr8obaVTTk7RLJVz_BLZZD4mTW7X91R6JvqlBgtiOOkplpwz_s-0b5KWY93NK83seORZustXKvL7RNTkVl5A%3D%3D&amp;xkcb=SoC167M34HVib2Sg0J0QbzkdCdPP&amp;fccid=a4e4e2eaf26690c9&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Principal Financial Specialist (On-site)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>El Segundo, CA 90245</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/rc/clk?jk=7f9cdbfb0935d636&amp;bb=nkkXy_wgYHD0Ji23l6TO-3-E1BUThNN-7diwpcUub9LS24np_-RQHWq6th85JcdhtkVmHFK8n-qqClDMtaH6k_hNSd260hO9_-C5kDKsF57ThSU-RBdteg%3D%3D&amp;xkcb=SoAd67M34HVib2Sg0J0rbzkdCdPP&amp;fccid=aa53b551f9df0210&amp;vjs=3</t>
         </is>
       </c>
     </row>
